--- a/biology/Virologie/Artoviridae/Artoviridae.xlsx
+++ b/biology/Virologie/Artoviridae/Artoviridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Artoviridae sont une famille de virus à ARN de polarité négative de l'ordre des Mononegavirales[2],[3]. Ses hôtes naturels sont des cirripèdes, copépodes, odonates, guêpes parasitoïdes et cloportes[3]. Le nom de la famille dérive de celui des arthropodes, l'embranchement de ses hôtes[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Artoviridae sont une famille de virus à ARN de polarité négative de l'ordre des Mononegavirales,. Ses hôtes naturels sont des cirripèdes, copépodes, odonates, guêpes parasitoïdes et cloportes. Le nom de la famille dérive de celui des arthropodes, l'embranchement de ses hôtes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les virions sont des particules sphériques de 100 à 130 nm de diamètre. Le génome du virus contient environ 12 kilobases d'ARN à polarité négative non segmenté[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les virions sont des particules sphériques de 100 à 130 nm de diamètre. Le génome du virus contient environ 12 kilobases d'ARN à polarité négative non segmenté.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La famille contient les genres suivants et espèces suivants[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La famille contient les genres suivants et espèces suivants :
 Hexartovirus
 Barnacle hexartovirus
 Caligid hexartovirus
